--- a/output/16527263000193.xlsx
+++ b/output/16527263000193.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Bico" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tanque" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Bico" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tanque" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,7 +460,12 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Obs</t>
+          <t>Obs_relatorio</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Obs_sped</t>
         </is>
       </c>
     </row>
@@ -490,9 +495,10 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>VERDADEIRO</t>
-        </is>
-      </c>
+          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -520,9 +526,10 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>VERDADEIRO</t>
-        </is>
-      </c>
+          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -550,9 +557,10 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>VERDADEIRO</t>
-        </is>
-      </c>
+          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -580,9 +588,10 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>VERDADEIRO</t>
-        </is>
-      </c>
+          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -610,9 +619,10 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>VERDADEIRO</t>
-        </is>
-      </c>
+          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -640,9 +650,10 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>VERDADEIRO</t>
-        </is>
-      </c>
+          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -670,9 +681,10 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>VERDADEIRO</t>
-        </is>
-      </c>
+          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -700,9 +712,10 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>VERDADEIRO</t>
-        </is>
-      </c>
+          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -730,9 +743,10 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>VERDADEIRO</t>
-        </is>
-      </c>
+          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -760,9 +774,10 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>VERDADEIRO</t>
-        </is>
-      </c>
+          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -775,7 +790,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -811,7 +826,12 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Obs</t>
+          <t>Obs_relatorio</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Obs_sped</t>
         </is>
       </c>
     </row>
@@ -835,9 +855,10 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>VERDADEIRO</t>
-        </is>
-      </c>
+          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -859,9 +880,10 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>VERDADEIRO</t>
-        </is>
-      </c>
+          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -883,9 +905,10 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>VERDADEIRO</t>
-        </is>
-      </c>
+          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -907,9 +930,10 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>VERDADEIRO</t>
-        </is>
-      </c>
+          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output/16527263000193.xlsx
+++ b/output/16527263000193.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Bico" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Tanque" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Bico" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tanque" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -493,11 +493,7 @@
       <c r="G2" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
-        </is>
-      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -524,11 +520,7 @@
       <c r="G3" t="n">
         <v>0</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
-        </is>
-      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -555,11 +547,7 @@
       <c r="G4" t="n">
         <v>0</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
-        </is>
-      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -586,11 +574,7 @@
       <c r="G5" t="n">
         <v>0</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
-        </is>
-      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -617,11 +601,7 @@
       <c r="G6" t="n">
         <v>0</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
-        </is>
-      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -648,11 +628,7 @@
       <c r="G7" t="n">
         <v>0</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
-        </is>
-      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -679,11 +655,7 @@
       <c r="G8" t="n">
         <v>0</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
-        </is>
-      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -710,11 +682,7 @@
       <c r="G9" t="n">
         <v>0</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
-        </is>
-      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -741,11 +709,7 @@
       <c r="G10" t="n">
         <v>0</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
-        </is>
-      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -772,11 +736,7 @@
       <c r="G11" t="n">
         <v>0</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
-        </is>
-      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
     </row>
   </sheetData>
@@ -855,7 +815,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+          <t>Divergência entre o SPED(11336,50) e o relatório(9134215,00)!</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -880,7 +840,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+          <t>Divergência entre o SPED(11336,50) e o relatório(3283312,00)!</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -905,7 +865,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+          <t>Divergência entre o SPED(11336,50) e o relatório(6488804,00)!</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -930,7 +890,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Validado com sucesso! Nenhuma divergência entre o SPED e o relatório foi encontrada!</t>
+          <t>Divergência entre o SPED(11336,50) e o relatório(11336496,00)!</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
